--- a/Stock-Research/DivGro Alpha/HD/HD.xlsx
+++ b/Stock-Research/DivGro Alpha/HD/HD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Research/Dividend Growth/HD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Research/DivGro Alpha/HD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{B70F5E0A-C338-4C09-B6B7-D09A2BA22522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B453C8-7387-4CC7-9D83-89A93D8EE4F0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{B70F5E0A-C338-4C09-B6B7-D09A2BA22522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EBCD7DF-C9A1-4AD7-9039-0FB9E0873B0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="8" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -520,6 +520,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,7 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -543,24 +543,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -873,6 +855,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -947,19 +947,19 @@
     <tableColumn id="6" xr3:uid="{60F9DAEA-0E91-491A-918D-91BC5E3E4832}" name="DivLow" dataDxfId="40" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{131C0FD6-FF3D-40D2-86BF-0CA31FEFDFB4}" name="DivHigh" dataDxfId="39" dataCellStyle="Percent"/>
     <tableColumn id="8" xr3:uid="{3A4DF5EF-35AA-4285-9F70-645E7BDAD0C5}" name="DivMean" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{B95D3B00-F5E6-483D-8585-A79B6158BCB3}" name="DivMedian" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C10088D7-01FC-4262-A4A2-81AA879ABE83}" name="10YT" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{B95D3B00-F5E6-483D-8585-A79B6158BCB3}" name="DivMedian" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C10088D7-01FC-4262-A4A2-81AA879ABE83}" name="10YT" dataDxfId="36" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="K6:L36" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B2C27D7-EBA6-4D7A-AFDB-FED4AF0B645A}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>($L$4/$L$5)^(1/K7)-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -972,24 +972,24 @@
   <autoFilter ref="B3:T34" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{E95A5EA6-8C37-450D-BF76-C50C15336E54}" name="FY"/>
-    <tableColumn id="2" xr3:uid="{8747F51E-820F-4468-BCC3-48363D5907BA}" name="PriceLow" dataDxfId="37" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{0384F1EE-FFB5-407C-BEE1-9ACA12902632}" name="PriceHigh" dataDxfId="36" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{8747F51E-820F-4468-BCC3-48363D5907BA}" name="PriceLow" dataDxfId="35" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{0384F1EE-FFB5-407C-BEE1-9ACA12902632}" name="PriceHigh" dataDxfId="34" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{CB7E9246-F4BD-4729-AEEF-6B492176E463}" name="Rev" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{38E590BD-6779-455E-AAD6-D6BF73040176}" name="RevLow" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{A824D407-B985-4B0A-963D-1C4B29E61195}" name="RevHigh" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{38E590BD-6779-455E-AAD6-D6BF73040176}" name="RevLow" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{A824D407-B985-4B0A-963D-1C4B29E61195}" name="RevHigh" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{8449A9C0-E2CF-4912-B46C-514654E50275}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{05F0B1A5-314B-4E98-8ECF-282F17A63780}" name="FCFLow" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{2F81A370-4427-43EF-9614-E702E70853F8}" name="FCFHigh" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{05F0B1A5-314B-4E98-8ECF-282F17A63780}" name="FCFLow" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{2F81A370-4427-43EF-9614-E702E70853F8}" name="FCFHigh" dataDxfId="30"/>
     <tableColumn id="10" xr3:uid="{C216ACE0-25C2-44B8-9536-29C417ACD356}" name="EPS" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{0194C2E4-463D-4C97-B0B9-2713EB0DADE9}" name="EPSLow" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{7E27F257-4F4B-47A6-BE74-21F38CA09F32}" name="EPSHigh" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{0194C2E4-463D-4C97-B0B9-2713EB0DADE9}" name="EPSLow" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{7E27F257-4F4B-47A6-BE74-21F38CA09F32}" name="EPSHigh" dataDxfId="28"/>
     <tableColumn id="13" xr3:uid="{62E4CEDC-B5C5-4284-A3D3-670D7BC4FD02}" name="Div" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{EB74DD92-9E7F-48A7-AE9F-413C8D7251CD}" name="DivLow" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{770C5EEB-09CD-42F9-842E-34230217C9C6}" name="DivHigh" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{E6FED66A-5F7A-45B1-8AE3-DC2E925490AF}" name="RevGro" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="17" xr3:uid="{10B36EBE-D179-42F0-91B7-35130E27E2E4}" name="FCFGro" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="18" xr3:uid="{01FB4025-6FED-4479-9C79-4C9929B4E07E}" name="EPSGro" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="19" xr3:uid="{A0F36E0A-BED1-4884-8B05-429AC70F5C35}" name="DivGro" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{EB74DD92-9E7F-48A7-AE9F-413C8D7251CD}" name="DivLow" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{770C5EEB-09CD-42F9-842E-34230217C9C6}" name="DivHigh" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{E6FED66A-5F7A-45B1-8AE3-DC2E925490AF}" name="RevGro" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{10B36EBE-D179-42F0-91B7-35130E27E2E4}" name="FCFGro" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{01FB4025-6FED-4479-9C79-4C9929B4E07E}" name="EPSGro" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{A0F36E0A-BED1-4884-8B05-429AC70F5C35}" name="DivGro" dataDxfId="22" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,21 +1003,21 @@
     <tableColumn id="2" xr3:uid="{0100CB9B-0B1E-4AE3-A93A-157826699440}" name="Revenue" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{8995E4D4-8874-461E-93C5-327ACC075324}" name="COGS" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{CF0B1E73-E41D-40D1-BBF1-13908B9B0BB1}" name="GrossProfit" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="21" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{BBED7933-CE88-4919-98AC-D952F483A7DC}" name="OperatingProfit" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{05C2A352-ECAB-468A-89F8-6C1DCCAB2D7C}" name="OPEX" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="20" dataCellStyle="Percent"/>
     <tableColumn id="9" xr3:uid="{6F33ACA0-58FC-4A42-AE23-29CB12B46808}" name="NetProfit" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="19" dataCellStyle="Percent"/>
     <tableColumn id="11" xr3:uid="{F0364200-1EE9-45E1-B7A7-2B6C5AC7A838}" name="CashFromOps" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CFOMargin" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CFOMargin" dataDxfId="18" dataCellStyle="Percent"/>
     <tableColumn id="13" xr3:uid="{A8179D66-84F1-4F36-8FB7-10813A416F83}" name="CAPEX" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="17" dataCellStyle="Percent"/>
     <tableColumn id="15" xr3:uid="{343D3F24-35EA-43E4-9FF6-71A091DF978D}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FCFMargin" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FCFMargin" dataDxfId="16" dataCellStyle="Percent"/>
     <tableColumn id="17" xr3:uid="{06343001-9D9F-49FB-B0BE-9993266C63C8}" name="Dividends" dataCellStyle="Currency"/>
-    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="19" xr3:uid="{A7B0613E-2510-403B-84F1-CC47FA5761A0}" name="DivFCF" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{A7B0613E-2510-403B-84F1-CC47FA5761A0}" name="DivFCF" dataDxfId="14" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,14 +1029,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{62EBC43D-E479-41D4-A87F-392537BB888A}" name="Fiscal Year"/>
     <tableColumn id="2" xr3:uid="{B44E26B7-745B-4E98-BAD6-D6759FA4E6D3}" name="Revenue" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{8772C3DC-BEB0-4C99-B4C2-26488FFA7EFA}" name="FCF" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{8772C3DC-BEB0-4C99-B4C2-26488FFA7EFA}" name="FCF" dataDxfId="13" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{79A83570-1D08-4443-87B5-EFEA379F44BA}" name="Dividend" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{2D92246E-BF59-46D6-A0EC-301AE06C6133}" name="MarketValue" dataCellStyle="Currency"/>
     <tableColumn id="10" xr3:uid="{B0D51114-3CC5-4A00-9EB3-FC1FE1BD06C4}" name="SharesOutstanding"/>
-    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{90D268FB-EEBA-43ED-973B-1C46E55CA5B7}" name="RevGro" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{D11E9BA3-DAAF-47B8-A118-CF07526260D6}" name="DivGro" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{D77C996E-20E0-4B4F-8363-FC1AB4244869}" name="MarketGro" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{90D268FB-EEBA-43ED-973B-1C46E55CA5B7}" name="RevGro" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{D11E9BA3-DAAF-47B8-A118-CF07526260D6}" name="DivGro" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{D77C996E-20E0-4B4F-8363-FC1AB4244869}" name="MarketGro" dataDxfId="9" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1067,7 +1067,7 @@
     <tableColumn id="3" xr3:uid="{E955993E-53F9-4AAD-87CE-198ED5D46364}" name="FCF" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{320CA921-01B8-4075-BDA9-DB5548FA3C37}" name="CashAndEquivalents" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1648A547-B40B-4FA2-B2E3-03EAAB8B9897}" name="MarketSecurities" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{09B14EEC-9DEF-4FA6-931B-74E0BFE5D8B1}" name="TotalCash" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{09B14EEC-9DEF-4FA6-931B-74E0BFE5D8B1}" name="TotalCash" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{3052AD93-48CF-4E86-96B4-BE4CE7B738DF}" name="Treasury" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{6A48522D-DDAB-4D51-9B64-D72F57CD0E4B}" name="CurrentAssets" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{E91D7D1C-50C8-4435-B4AE-108CE2D2039E}" name="LongAssets" dataCellStyle="Currency"/>
@@ -1086,18 +1086,18 @@
     <tableColumn id="1" xr3:uid="{5FDF1320-5B10-468E-A1FB-4CC34F988AF8}" name="Year"/>
     <tableColumn id="2" xr3:uid="{2B1F9B0E-2EB4-4DD7-B95A-42CBBE4E9A26}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{F8D5CBD2-C854-43E6-98C3-6FCD800ECAB2}" name="PriceMedian" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="7" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="C6:D36" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17720CF0-4C15-4B55-BC81-0E3781C7BF22}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="4">
       <calculatedColumnFormula>$D$4*(1+$D$5)^C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1106,11 +1106,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="G6:H36" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{56FDB9CA-94AE-4A82-9B0D-0C0A9E6D92D9}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="2">
       <calculatedColumnFormula>$H$4/(1+$H$5)^G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J28:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1502,7 @@
       <c r="J4" s="29">
         <v>2.8484231943031501E-3</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="33">
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       <c r="J5" s="29">
         <v>3.4968505512007102E-3</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="33">
         <v>7.0900000000000005E-2</v>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       <c r="J6" s="29">
         <v>4.4287972118657801E-3</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="33">
         <v>6.5699999999999995E-2</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       <c r="J7" s="29">
         <v>4.2933274254294898E-3</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="33">
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="J8" s="29">
         <v>4.0944881889763696E-3</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="33">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       <c r="J9" s="29">
         <v>2.8769988139679399E-3</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="33">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="J10" s="29">
         <v>2.1791764493596499E-3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="33">
         <v>5.6500000000000002E-2</v>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="J11" s="29">
         <v>3.0063971734104501E-3</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="33">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       <c r="J12" s="29">
         <v>3.5114705597892098E-3</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="33">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="J13" s="29">
         <v>5.5642199527091603E-3</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="33">
         <v>4.6100000000000002E-2</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="J14" s="29">
         <v>8.0680032360352996E-3</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="33">
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="J15" s="29">
         <v>8.0702605417151494E-3</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="33">
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       <c r="J16" s="29">
         <v>9.8765456184229505E-3</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="33">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       <c r="J17" s="29">
         <v>1.6107382550335499E-2</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="33">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       <c r="J18" s="29">
         <v>2.37529691211401E-2</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="33">
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="J19" s="29">
         <v>3.4168564920273301E-2</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="33">
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="J20" s="29">
         <v>3.55309964576545E-2</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="33">
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       <c r="J21" s="29">
         <v>2.9968256988486399E-2</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="33">
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="J22" s="29">
         <v>2.7480076944215399E-2</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="33">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       <c r="J23" s="29">
         <v>2.2327013968692799E-2</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="33">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="J24" s="29">
         <v>2.0132929708482301E-2</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="33">
         <v>2.35E-2</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="J25" s="29">
         <v>2.07916966227162E-2</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="33">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       <c r="J26" s="29">
         <v>2.0174392470084301E-2</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="33">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       <c r="J27" s="29">
         <v>2.06487958524962E-2</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="33">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       <c r="J28" s="29">
         <v>2.25780878616131E-2</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="33">
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="J29" s="29">
         <v>2.1192325497659498E-2</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="33">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       <c r="J30" s="29">
         <v>2.4939831867448699E-2</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="33">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       <c r="J31" s="29">
         <v>2.28641109671518E-2</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="33">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="J32" s="29">
         <v>2.03936594258875E-2</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="33">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       <c r="J33" s="29">
         <v>2.3132647470627599E-2</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="33">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
   <dimension ref="B3:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I33"/>
+      <selection activeCell="O33" sqref="O20:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9453,20 +9453,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -9699,18 +9699,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -9888,40 +9888,40 @@
   </sheetPr>
   <dimension ref="C2:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>43</v>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D7" s="1">
         <f>$D$4*(1+$D$5)^C7</f>
-        <v>1.1499999999999999</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:D36" si="2">$D$4*(1+$D$5)^C8</f>
-        <v>1.3224999999999998</v>
+        <v>3.4384999999999994</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>1.5208749999999995</v>
+        <v>3.9542749999999991</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>1.7490062499999994</v>
+        <v>4.5474162499999986</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>2.0113571874999994</v>
+        <v>5.2295286874999984</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>2.3130607656249991</v>
+        <v>6.0139579906249976</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>2.6600198804687483</v>
+        <v>6.9160516892187456</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>3.0590228625390603</v>
+        <v>7.9534594426015568</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>3.5178762919199191</v>
+        <v>9.1464783589917893</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>4.0455577357079067</v>
+        <v>10.518450112840558</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>4.6523913960640924</v>
+        <v>12.09621762976664</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>5.3502501054737053</v>
+        <v>13.910650274231633</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>6.1527876212947614</v>
+        <v>15.99724781536638</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>7.0757057644889754</v>
+        <v>18.396834987671337</v>
       </c>
       <c r="G20">
         <v>14</v>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>8.1370616291623197</v>
+        <v>21.156360235822032</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>9.3576208735366659</v>
+        <v>24.329814271195332</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>10.761264004567165</v>
+        <v>27.979286411874629</v>
       </c>
       <c r="G23">
         <v>17</v>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>12.375453605252238</v>
+        <v>32.17617937365582</v>
       </c>
       <c r="G24">
         <v>18</v>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>14.231771646040073</v>
+        <v>37.002606279704189</v>
       </c>
       <c r="G25">
         <v>19</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>16.366537392946082</v>
+        <v>42.552997221659815</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>18.821518001887995</v>
+        <v>48.935946804908788</v>
       </c>
       <c r="G27">
         <v>21</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>21.644745702171193</v>
+        <v>56.276338825645105</v>
       </c>
       <c r="G28">
         <v>22</v>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>24.891457557496867</v>
+        <v>64.717789649491863</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>28.625176191121394</v>
+        <v>74.425458096915634</v>
       </c>
       <c r="G30">
         <v>24</v>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>32.9189526197896</v>
+        <v>85.589276811452962</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>37.85679551275804</v>
+        <v>98.427668333170914</v>
       </c>
       <c r="G32">
         <v>26</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>43.535314839671742</v>
+        <v>113.19181858314653</v>
       </c>
       <c r="G33">
         <v>27</v>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>50.065612065622496</v>
+        <v>130.1705913706185</v>
       </c>
       <c r="G34">
         <v>28</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>57.575453875465868</v>
+        <v>149.69618007621125</v>
       </c>
       <c r="G35">
         <v>29</v>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>66.211771956785753</v>
+        <v>172.15060708764295</v>
       </c>
       <c r="G36">
         <v>30</v>
